--- a/21-Spreads4Tests/Protons-vs-ions.xlsx
+++ b/21-Spreads4Tests/Protons-vs-ions.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/04-LhARAlinearOptics/21-Spreads4Tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2048145023038/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B328D2D8-F937-CB47-A708-BE6FDCC11C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{B328D2D8-F937-CB47-A708-BE6FDCC11C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F251FE2-39DF-F64B-9D73-D517F21165EF}"/>
   <bookViews>
-    <workbookView xWindow="14780" yWindow="7280" windowWidth="28040" windowHeight="17180" xr2:uid="{18A57362-5B43-8642-9592-298722DFE95D}"/>
+    <workbookView xWindow="2200" yWindow="2460" windowWidth="28040" windowHeight="17180" xr2:uid="{18A57362-5B43-8642-9592-298722DFE95D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Constants</t>
   </si>
@@ -201,9 +201,6 @@
     </r>
   </si>
   <si>
-    <t>Ion paramters</t>
-  </si>
-  <si>
     <t>charge</t>
   </si>
   <si>
@@ -234,39 +231,22 @@
     <t>q</t>
   </si>
   <si>
-    <r>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>|</t>
-    </r>
-  </si>
-  <si>
     <t>Proton</t>
   </si>
   <si>
     <t>Rigidity:</t>
   </si>
   <si>
-    <t>KI</t>
+    <t>KE</t>
+  </si>
+  <si>
+    <t>MeV/u</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Ion parameters</t>
   </si>
 </sst>
 </file>
@@ -558,30 +538,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -630,27 +592,44 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,270 +964,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E06DDC-0984-B24C-BD7C-E12F9F8217CA}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="L20" sqref="L17:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+    <row r="1" spans="1:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
       <c r="H1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="36"/>
       <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="38">
+      <c r="F2" s="3"/>
+      <c r="H2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="28">
         <f>SQRT(4*PI()/137)</f>
         <v>0.30286190409413793</v>
       </c>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="20" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="J2" s="29"/>
+      <c r="L2" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="8">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>1.5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3">
         <v>938.27208815999995</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="L3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8">
+        <f>M4-I11</f>
+        <v>45.609479836855826</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="8">
         <f>I3+B3</f>
-        <v>958.27208815999995</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>953.27208815999995</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="5">
         <v>299792458</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="L4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="8">
+        <f>SQRT(I11^2+M5^2)</f>
+        <v>11220.409479836855</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="8">
         <f>SQRT(B4^2 -I3^ 2)</f>
-        <v>194.75852619692921</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>168.44335144136713</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="H5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="I5">
         <f>1/I4</f>
         <v>3.3356409519815204E-9</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="8">
+        <f>B14*I12</f>
+        <v>1010.6601086482027</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B6">
         <f>B5/I3</f>
-        <v>0.20757148022900346</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="19" t="s">
+        <v>0.17952505842062641</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="H6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="16">
         <f>I5*1000000000</f>
         <v>3.3356409519815204</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="L6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="e">
+        <f>M5/T3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B7">
         <f>B5/B4</f>
-        <v>0.20323927682260837</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+        <v>0.17670018196640527</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="L7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <f>M5/M4</f>
+        <v>9.0073371249450848E-2</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10"/>
+      <c r="L8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="16">
+        <f>I12</f>
+        <v>1.8171714245648276</v>
+      </c>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="H9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="L9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f>M3/12</f>
+        <v>3.8007899864046522</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="H10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="22">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+      <c r="H11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="24">
+        <v>11174.8</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.2">
-      <c r="H11" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="30">
-        <v>11174.8</v>
-      </c>
-      <c r="J11" s="30" t="s">
+      <c r="I12" s="26">
+        <f>6*I2</f>
+        <v>1.8171714245648276</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="31">
+        <f>B5/I2</f>
+        <v>556.17213378216832</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8">
+        <f>M3</f>
+        <v>45.609479836855826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="H15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="8">
+        <f>I11+I14</f>
+        <v>11220.409479836855</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="H16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="8">
+        <f>SQRT(I15^2 -I11^ 2)</f>
+        <v>1010.6601086482007</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="8">
+        <f>B14-I22</f>
+        <v>1.1368683772161603E-12</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="31">
+        <f>I16/I12</f>
+        <v>556.17213378216718</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F26">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="32">
-        <v>6</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="40" t="s">
+      <c r="G26" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="41">
-        <f>B5/I2</f>
-        <v>643.0604957710126</v>
-      </c>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14">
-        <f>SQRT(I11^2+I12^2*B5^2)-I11</f>
-        <v>60.931700559176534</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="H15" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="14">
-        <f>I11+I14</f>
-        <v>11235.731700559176</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="H16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="14">
-        <f>SQRT(I15^2 -I11^ 2)</f>
-        <v>1168.551157181578</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D22" s="14">
-        <f>B14-I22</f>
-        <v>-1.4779288903810084E-12</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="41">
-        <f>I16/(I12*I2)</f>
-        <v>643.06049577101408</v>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f>F26*12</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
